--- a/src/test/java/Pages/DavutPackage/exceldosya.xlsx
+++ b/src/test/java/Pages/DavutPackage/exceldosya.xlsx
@@ -28,24 +28,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
-    <t>Davut</t>
-  </si>
-  <si>
-    <t>ayse</t>
-  </si>
-  <si>
-    <t>DavutYeni</t>
-  </si>
-  <si>
-    <t>ayseYeni</t>
-  </si>
-  <si>
-    <t>dvty</t>
-  </si>
-  <si>
-    <t>ysy</t>
-  </si>
-  <si>
     <t>nrwy</t>
   </si>
   <si>
@@ -53,6 +35,24 @@
   </si>
   <si>
     <t>232</t>
+  </si>
+  <si>
+    <t>deneme1</t>
+  </si>
+  <si>
+    <t>deneme2</t>
+  </si>
+  <si>
+    <t>Ydeneme1</t>
+  </si>
+  <si>
+    <t>Ydeneme2</t>
+  </si>
+  <si>
+    <t>dnmy1</t>
+  </si>
+  <si>
+    <t>dnmy2</t>
   </si>
 </sst>
 </file>
@@ -411,20 +411,20 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" s="4">
         <v>423</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D1" s="4">
         <v>0.123</v>
@@ -433,13 +433,13 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" s="4">
         <v>456</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D2" s="4">
         <v>0.124</v>
@@ -460,40 +460,40 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="E1" s="1">
         <v>0.12</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
         <v>0.13</v>
@@ -506,29 +506,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="I13" sqref="I12:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
+    <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
